--- a/Matrix de Prova - Pedro ganhou consciência.xlsx
+++ b/Matrix de Prova - Pedro ganhou consciência.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36129382024.1m\Documents\igor\Nova pasta\testes_aula_6a_28NOV25_selenium_1\fatec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36129382024.1m\Documents\IgorPedroTestesDeSoftwareADS4M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3D056-F47B-4DAC-90FC-CADFED74BB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1049982-5DA0-4AF7-B935-4F87D58AA6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>Nome do TC</t>
   </si>
@@ -129,28 +129,25 @@
     <t>Cadastro de Produto, modal é fechado e produto é adicionado a lista de Controle de Produtos.</t>
   </si>
   <si>
-    <t>TC012_DeveCadastrarProdutoNoSistemaComCodigoVazioNomePreenchidoQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
-  </si>
-  <si>
     <t>TC010_DeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomePreenchidoQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
   </si>
   <si>
-    <t>TC013_DeveCadastrarProdutoNoSistemaComCodigoVazioNomePreenchidoQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
-  </si>
-  <si>
-    <t>TC014_DeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomeVazioQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
-  </si>
-  <si>
-    <t>TC015_DeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomePreenchidoQuantidadeVaziaValorPreenchidoEDataPreenchida</t>
-  </si>
-  <si>
-    <t>TC016_DeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomePreenchidoQuantidadePreenchidaValorPreenchidoEDataVazia</t>
-  </si>
-  <si>
-    <t>TC017_DeveCadastrarProdutoNoSistemaComCodigoVazioNomeVazioQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
-  </si>
-  <si>
-    <t>TC018_DeveCadastrarProdutoNoSistemaComCodigoVazioNomePreenchidoQuantidadeVaziaValorPreenchidoEDataPreenchida</t>
+    <t>TC012_naoDeveCadastrarProdutoNoSistemaComCodigoVazioNomePreenchidoQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
+  </si>
+  <si>
+    <t>TC016_naoDeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomePreenchidoQuantidadePreenchidaValorPreenchidoEDataVazia</t>
+  </si>
+  <si>
+    <t>TC013_naoDeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomeVazioQuantidadePreenchidaValorPreenchidoEDataPreenchida</t>
+  </si>
+  <si>
+    <t>TC014_naoDeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomePreenchidoQuantidadeVaziaValorPreenchidoEDataPreenchida</t>
+  </si>
+  <si>
+    <t>TC015_naoDeveCadastrarProdutoNoSistemaComCodigoPreenchidoNomePreenchidoQuantidadePreenchidaValorVazioEDataPreenchida</t>
+  </si>
+  <si>
+    <t>TC10 tem teste de caso 10_1 e 10_2 para verificar se foi inserido na página e se não existe foi criado com código errado. O original é 10_0 e precisa ser especificado para funcionar com FixMethodOrder.</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
   <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -672,7 +669,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
@@ -718,7 +715,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -787,7 +784,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>31</v>
@@ -832,53 +829,33 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
